--- a/biology/Histoire de la zoologie et de la botanique/Ludlow_Griscom/Ludlow_Griscom.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludlow_Griscom/Ludlow_Griscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludlow Griscom est un ornithologue américain, né le 17 juin 1890 à New York et mort le 28 mai 1959 à Cambridge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyageant beaucoup dès son jeune âge, il montre une grande aptitude pour les langues, en parlant cinq et en en lisant dix. Doué également pour la musique, il envisage une carrière de pianiste.
 Mais sa passion pour les oiseaux est la plus forte, et malgré l'opposition de ses parents, il s'oriente dans cette voie. Il fait des études à l'université Columbia en 1912 et suit les cours d'Arthur Augustus Allen (1885-1964), le premier professeur d'ornithologie aux États-Unis. Il obtient un master à l’université Cornell.
